--- a/media/evaluation-reports/202502_admin_report..xlsx
+++ b/media/evaluation-reports/202502_admin_report..xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Questionnaire Answer Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categories Scores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lecturer Rating Summary Report" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Response Rate Summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Suggestion Sentiments" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Questionnaire Answer Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Categories Scores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lecturer Rating Summary Report" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Response Rate Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Suggestion Sentiments" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,7 +478,7 @@
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="28.8" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Name of Lecturer</t>
@@ -498,7 +498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="28.8" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Course Code</t>
@@ -528,7 +528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="28.8" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Number of Students</t>
@@ -554,7 +554,7 @@
         <v>0.4878048780487805</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="28.8" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Department</t>
@@ -574,7 +574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="28.8" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Mean Score</t>
@@ -602,7 +602,7 @@
         </is>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="43.2" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Core Area (Categories)</t>
@@ -660,7 +660,7 @@
           <t>Course Content</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Lecturer has provided helpful course outline</t>
         </is>
@@ -695,7 +695,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Coverage of course content by lecturer</t>
         </is>
@@ -708,7 +708,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>Communication of objectives of the course</t>
         </is>
@@ -721,7 +721,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>Relevant reading materials and references provided(textbooks, links, lecturer notes, videos etc)</t>
         </is>
@@ -739,7 +739,7 @@
           <t>Class Attendance</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Regularity in class</t>
         </is>
@@ -763,7 +763,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>Punctuality</t>
         </is>
@@ -776,7 +776,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>Does the course have an online teaching period on this timetable ?</t>
         </is>
@@ -789,7 +789,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>How often does the lecturer use the online teaching period ?</t>
         </is>
@@ -807,7 +807,7 @@
           <t>Mode Delivery / Interactions</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Lecturer explains the material clearly in ways that easy to understand, offer alternative explanations or additional examples and clears up confusion</t>
         </is>
@@ -831,7 +831,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>Encouraging student participation during learning</t>
         </is>
@@ -844,7 +844,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Interaction with students in class</t>
         </is>
@@ -857,7 +857,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>The lecturer is available to students outside class time for tutoring, review work or answer questions</t>
         </is>
@@ -870,7 +870,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>The lecturer links learning materials to practical applications.</t>
         </is>
@@ -888,7 +888,7 @@
           <t>Assesssment of Materials Taught</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>The lecturer is approchable; He/She demonstrates interest in and concerns for the students</t>
         </is>
@@ -912,7 +912,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>The lecturer gives the right amounts of graded assignments, tests and quizzes, in order to fairly evaluate performance</t>
         </is>
@@ -925,7 +925,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>Marking and discussion of class assignment.</t>
         </is>
@@ -938,7 +938,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>Monitoring the the progress of the class (Attendance, Student performance)</t>
         </is>
@@ -956,7 +956,7 @@
           <t>Use of Teaching Assistants</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>Is this lecturer having a teaching assistant ?</t>
         </is>
@@ -980,7 +980,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>How often does the teaching assistance do tutorials in the absence of the lecturer?</t>
         </is>
@@ -996,7 +996,7 @@
     <row r="30"/>
     <row r="31"/>
     <row r="32"/>
-    <row r="33">
+    <row r="33" ht="28.8" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>Name of Lecturer</t>
@@ -1016,7 +1016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="28.8" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
           <t>Course Code</t>
@@ -1046,7 +1046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="28.8" customHeight="1">
       <c r="A35" s="2" t="inlineStr">
         <is>
           <t>Number of Students</t>
@@ -1072,7 +1072,7 @@
         <v>0.4878048780487805</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="28.8" customHeight="1">
       <c r="A36" s="2" t="inlineStr">
         <is>
           <t>Department</t>
@@ -1092,7 +1092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="28.8" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
           <t>Mean Score</t>
@@ -1120,7 +1120,7 @@
         </is>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="43.2" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
         <is>
           <t>Core Area (Categories)</t>
@@ -1178,7 +1178,7 @@
           <t>Course Content</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>Lecturer has provided helpful course outline</t>
         </is>
@@ -1213,7 +1213,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Coverage of course content by lecturer</t>
         </is>
@@ -1226,7 +1226,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>Communication of objectives of the course</t>
         </is>
@@ -1239,7 +1239,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>Relevant reading materials and references provided(textbooks, links, lecturer notes, videos etc)</t>
         </is>
@@ -1257,7 +1257,7 @@
           <t>Class Attendance</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Regularity in class</t>
         </is>
@@ -1281,7 +1281,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Punctuality</t>
         </is>
@@ -1294,7 +1294,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>Does the course have an online teaching period on this timetable ?</t>
         </is>
@@ -1307,7 +1307,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>How often does the lecturer use the online teaching period ?</t>
         </is>
@@ -1325,7 +1325,7 @@
           <t>Mode Delivery / Interactions</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>Lecturer explains the material clearly in ways that easy to understand, offer alternative explanations or additional examples and clears up confusion</t>
         </is>
@@ -1349,7 +1349,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>Encouraging student participation during learning</t>
         </is>
@@ -1362,7 +1362,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Interaction with students in class</t>
         </is>
@@ -1375,7 +1375,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>The lecturer is available to students outside class time for tutoring, review work or answer questions</t>
         </is>
@@ -1388,7 +1388,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>The lecturer links learning materials to practical applications.</t>
         </is>
@@ -1406,7 +1406,7 @@
           <t>Assesssment of Materials Taught</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>The lecturer is approchable; He/She demonstrates interest in and concerns for the students</t>
         </is>
@@ -1430,7 +1430,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="4" t="inlineStr">
         <is>
           <t>The lecturer gives the right amounts of graded assignments, tests and quizzes, in order to fairly evaluate performance</t>
         </is>
@@ -1443,7 +1443,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>Marking and discussion of class assignment.</t>
         </is>
@@ -1456,7 +1456,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>Monitoring the the progress of the class (Attendance, Student performance)</t>
         </is>
@@ -1474,7 +1474,7 @@
           <t>Use of Teaching Assistants</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
         <is>
           <t>Is this lecturer having a teaching assistant ?</t>
         </is>
@@ -1498,7 +1498,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>How often does the teaching assistance do tutorials in the absence of the lecturer?</t>
         </is>
@@ -1514,7 +1514,7 @@
     <row r="59"/>
     <row r="60"/>
     <row r="61"/>
-    <row r="62">
+    <row r="62" ht="28.8" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
           <t>Name of Lecturer</t>
@@ -1534,7 +1534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="28.8" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
           <t>Course Code</t>
@@ -1564,7 +1564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="28.8" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
           <t>Number of Students</t>
@@ -1590,7 +1590,7 @@
         <v>0.4878048780487805</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="28.8" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
           <t>Department</t>
@@ -1610,7 +1610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="28.8" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
           <t>Mean Score</t>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
     </row>
-    <row r="67">
+    <row r="67" ht="43.2" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
         <is>
           <t>Core Area (Categories)</t>
@@ -1696,7 +1696,7 @@
           <t>Course Content</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="4" t="inlineStr">
         <is>
           <t>Lecturer has provided helpful course outline</t>
         </is>
@@ -1731,7 +1731,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="4" t="inlineStr">
         <is>
           <t>Coverage of course content by lecturer</t>
         </is>
@@ -1744,7 +1744,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="4" t="inlineStr">
         <is>
           <t>Communication of objectives of the course</t>
         </is>
@@ -1757,7 +1757,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="4" t="inlineStr">
         <is>
           <t>Relevant reading materials and references provided(textbooks, links, lecturer notes, videos etc)</t>
         </is>
@@ -1775,7 +1775,7 @@
           <t>Class Attendance</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="4" t="inlineStr">
         <is>
           <t>Regularity in class</t>
         </is>
@@ -1799,7 +1799,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="4" t="inlineStr">
         <is>
           <t>Punctuality</t>
         </is>
@@ -1812,7 +1812,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="4" t="inlineStr">
         <is>
           <t>Does the course have an online teaching period on this timetable ?</t>
         </is>
@@ -1825,7 +1825,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="4" t="inlineStr">
         <is>
           <t>How often does the lecturer use the online teaching period ?</t>
         </is>
@@ -1843,7 +1843,7 @@
           <t>Mode Delivery / Interactions</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="4" t="inlineStr">
         <is>
           <t>Lecturer explains the material clearly in ways that easy to understand, offer alternative explanations or additional examples and clears up confusion</t>
         </is>
@@ -1867,7 +1867,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="4" t="inlineStr">
         <is>
           <t>Encouraging student participation during learning</t>
         </is>
@@ -1880,7 +1880,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="4" t="inlineStr">
         <is>
           <t>Interaction with students in class</t>
         </is>
@@ -1893,7 +1893,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="4" t="inlineStr">
         <is>
           <t>The lecturer is available to students outside class time for tutoring, review work or answer questions</t>
         </is>
@@ -1906,7 +1906,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="4" t="inlineStr">
         <is>
           <t>The lecturer links learning materials to practical applications.</t>
         </is>
@@ -1924,7 +1924,7 @@
           <t>Assesssment of Materials Taught</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="4" t="inlineStr">
         <is>
           <t>The lecturer is approchable; He/She demonstrates interest in and concerns for the students</t>
         </is>
@@ -1948,7 +1948,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="4" t="inlineStr">
         <is>
           <t>The lecturer gives the right amounts of graded assignments, tests and quizzes, in order to fairly evaluate performance</t>
         </is>
@@ -1961,7 +1961,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="4" t="inlineStr">
         <is>
           <t>Marking and discussion of class assignment.</t>
         </is>
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="4" t="inlineStr">
         <is>
           <t>Monitoring the the progress of the class (Attendance, Student performance)</t>
         </is>
@@ -1992,7 +1992,7 @@
           <t>Use of Teaching Assistants</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="4" t="inlineStr">
         <is>
           <t>Is this lecturer having a teaching assistant ?</t>
         </is>
@@ -2016,7 +2016,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="4" t="inlineStr">
         <is>
           <t>How often does the teaching assistance do tutorials in the absence of the lecturer?</t>
         </is>
@@ -2032,7 +2032,7 @@
     <row r="88"/>
     <row r="89"/>
     <row r="90"/>
-    <row r="91">
+    <row r="91" ht="28.8" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
         <is>
           <t>Name of Lecturer</t>
@@ -2052,7 +2052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" ht="28.8" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
         <is>
           <t>Course Code</t>
@@ -2082,7 +2082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" ht="28.8" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
         <is>
           <t>Number of Students</t>
@@ -2108,7 +2108,7 @@
         <v>0.4878048780487805</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" ht="28.8" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
         <is>
           <t>Department</t>
@@ -2128,7 +2128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" ht="28.8" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
         <is>
           <t>Mean Score</t>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
     </row>
-    <row r="96">
+    <row r="96" ht="43.2" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
           <t>Core Area (Categories)</t>
@@ -2214,7 +2214,7 @@
           <t>Course Content</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="4" t="inlineStr">
         <is>
           <t>Lecturer has provided helpful course outline</t>
         </is>
@@ -2249,7 +2249,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="4" t="inlineStr">
         <is>
           <t>Coverage of course content by lecturer</t>
         </is>
@@ -2262,7 +2262,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="4" t="inlineStr">
         <is>
           <t>Communication of objectives of the course</t>
         </is>
@@ -2275,7 +2275,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="4" t="inlineStr">
         <is>
           <t>Relevant reading materials and references provided(textbooks, links, lecturer notes, videos etc)</t>
         </is>
@@ -2293,7 +2293,7 @@
           <t>Class Attendance</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="4" t="inlineStr">
         <is>
           <t>Regularity in class</t>
         </is>
@@ -2317,7 +2317,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="4" t="inlineStr">
         <is>
           <t>Punctuality</t>
         </is>
@@ -2330,7 +2330,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="4" t="inlineStr">
         <is>
           <t>Does the course have an online teaching period on this timetable ?</t>
         </is>
@@ -2343,7 +2343,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="4" t="inlineStr">
         <is>
           <t>How often does the lecturer use the online teaching period ?</t>
         </is>
@@ -2361,7 +2361,7 @@
           <t>Mode Delivery / Interactions</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="4" t="inlineStr">
         <is>
           <t>Lecturer explains the material clearly in ways that easy to understand, offer alternative explanations or additional examples and clears up confusion</t>
         </is>
@@ -2385,7 +2385,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="4" t="inlineStr">
         <is>
           <t>Encouraging student participation during learning</t>
         </is>
@@ -2398,7 +2398,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="4" t="inlineStr">
         <is>
           <t>Interaction with students in class</t>
         </is>
@@ -2411,7 +2411,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="4" t="inlineStr">
         <is>
           <t>The lecturer is available to students outside class time for tutoring, review work or answer questions</t>
         </is>
@@ -2424,7 +2424,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="4" t="inlineStr">
         <is>
           <t>The lecturer links learning materials to practical applications.</t>
         </is>
@@ -2442,7 +2442,7 @@
           <t>Assesssment of Materials Taught</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="4" t="inlineStr">
         <is>
           <t>The lecturer is approchable; He/She demonstrates interest in and concerns for the students</t>
         </is>
@@ -2466,7 +2466,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="4" t="inlineStr">
         <is>
           <t>The lecturer gives the right amounts of graded assignments, tests and quizzes, in order to fairly evaluate performance</t>
         </is>
@@ -2479,7 +2479,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="4" t="inlineStr">
         <is>
           <t>Marking and discussion of class assignment.</t>
         </is>
@@ -2492,7 +2492,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="inlineStr">
+      <c r="B113" s="4" t="inlineStr">
         <is>
           <t>Monitoring the the progress of the class (Attendance, Student performance)</t>
         </is>
@@ -2510,7 +2510,7 @@
           <t>Use of Teaching Assistants</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="4" t="inlineStr">
         <is>
           <t>Is this lecturer having a teaching assistant ?</t>
         </is>
@@ -2534,7 +2534,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="4" t="inlineStr">
         <is>
           <t>How often does the teaching assistance do tutorials in the absence of the lecturer?</t>
         </is>
@@ -2550,7 +2550,7 @@
     <row r="117"/>
     <row r="118"/>
     <row r="119"/>
-    <row r="120">
+    <row r="120" ht="28.8" customHeight="1">
       <c r="A120" s="2" t="inlineStr">
         <is>
           <t>Name of Lecturer</t>
@@ -2570,7 +2570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" ht="28.8" customHeight="1">
       <c r="A121" s="2" t="inlineStr">
         <is>
           <t>Course Code</t>
@@ -2600,7 +2600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" ht="28.8" customHeight="1">
       <c r="A122" s="2" t="inlineStr">
         <is>
           <t>Number of Students</t>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" ht="28.8" customHeight="1">
       <c r="A123" s="2" t="inlineStr">
         <is>
           <t>Department</t>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" ht="28.8" customHeight="1">
       <c r="A124" s="2" t="inlineStr">
         <is>
           <t>Mean Score</t>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
     </row>
-    <row r="125">
+    <row r="125" ht="43.2" customHeight="1">
       <c r="A125" s="3" t="inlineStr">
         <is>
           <t>Core Area (Categories)</t>
@@ -2732,7 +2732,7 @@
           <t>Course Content</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="4" t="inlineStr">
         <is>
           <t>Lecturer has provided helpful course outline</t>
         </is>
@@ -2767,7 +2767,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="4" t="inlineStr">
         <is>
           <t>Coverage of course content by lecturer</t>
         </is>
@@ -2780,7 +2780,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="4" t="inlineStr">
         <is>
           <t>Communication of objectives of the course</t>
         </is>
@@ -2793,7 +2793,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="4" t="inlineStr">
         <is>
           <t>Relevant reading materials and references provided(textbooks, links, lecturer notes, videos etc)</t>
         </is>
@@ -2811,7 +2811,7 @@
           <t>Class Attendance</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="4" t="inlineStr">
         <is>
           <t>Regularity in class</t>
         </is>
@@ -2835,7 +2835,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="4" t="inlineStr">
         <is>
           <t>Punctuality</t>
         </is>
@@ -2848,7 +2848,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="4" t="inlineStr">
         <is>
           <t>Does the course have an online teaching period on this timetable ?</t>
         </is>
@@ -2861,7 +2861,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="4" t="inlineStr">
         <is>
           <t>How often does the lecturer use the online teaching period ?</t>
         </is>
@@ -2879,7 +2879,7 @@
           <t>Mode Delivery / Interactions</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="4" t="inlineStr">
         <is>
           <t>Lecturer explains the material clearly in ways that easy to understand, offer alternative explanations or additional examples and clears up confusion</t>
         </is>
@@ -2903,7 +2903,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="4" t="inlineStr">
         <is>
           <t>Encouraging student participation during learning</t>
         </is>
@@ -2916,7 +2916,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="4" t="inlineStr">
         <is>
           <t>Interaction with students in class</t>
         </is>
@@ -2929,7 +2929,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="inlineStr">
+      <c r="B137" s="4" t="inlineStr">
         <is>
           <t>The lecturer is available to students outside class time for tutoring, review work or answer questions</t>
         </is>
@@ -2942,7 +2942,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="inlineStr">
+      <c r="B138" s="4" t="inlineStr">
         <is>
           <t>The lecturer links learning materials to practical applications.</t>
         </is>
@@ -2960,7 +2960,7 @@
           <t>Assesssment of Materials Taught</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="4" t="inlineStr">
         <is>
           <t>The lecturer is approchable; He/She demonstrates interest in and concerns for the students</t>
         </is>
@@ -2984,7 +2984,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="4" t="inlineStr">
         <is>
           <t>The lecturer gives the right amounts of graded assignments, tests and quizzes, in order to fairly evaluate performance</t>
         </is>
@@ -2997,7 +2997,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="4" t="inlineStr">
         <is>
           <t>Marking and discussion of class assignment.</t>
         </is>
@@ -3010,7 +3010,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="4" t="inlineStr">
         <is>
           <t>Monitoring the the progress of the class (Attendance, Student performance)</t>
         </is>
@@ -3028,7 +3028,7 @@
           <t>Use of Teaching Assistants</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="4" t="inlineStr">
         <is>
           <t>Is this lecturer having a teaching assistant ?</t>
         </is>
@@ -3052,7 +3052,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="4" t="inlineStr">
         <is>
           <t>How often does the teaching assistance do tutorials in the absence of the lecturer?</t>
         </is>
@@ -3068,7 +3068,7 @@
     <row r="146"/>
     <row r="147"/>
     <row r="148"/>
-    <row r="149">
+    <row r="149" ht="28.8" customHeight="1">
       <c r="A149" s="2" t="inlineStr">
         <is>
           <t>Name of Lecturer</t>
@@ -3088,7 +3088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" ht="28.8" customHeight="1">
       <c r="A150" s="2" t="inlineStr">
         <is>
           <t>Course Code</t>
@@ -3118,7 +3118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" ht="28.8" customHeight="1">
       <c r="A151" s="2" t="inlineStr">
         <is>
           <t>Number of Students</t>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" ht="28.8" customHeight="1">
       <c r="A152" s="2" t="inlineStr">
         <is>
           <t>Department</t>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" ht="28.8" customHeight="1">
       <c r="A153" s="2" t="inlineStr">
         <is>
           <t>Mean Score</t>
@@ -3192,7 +3192,7 @@
         </is>
       </c>
     </row>
-    <row r="154">
+    <row r="154" ht="43.2" customHeight="1">
       <c r="A154" s="3" t="inlineStr">
         <is>
           <t>Core Area (Categories)</t>
@@ -3250,7 +3250,7 @@
           <t>Course Content</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="4" t="inlineStr">
         <is>
           <t>Lecturer has provided helpful course outline</t>
         </is>
@@ -3285,7 +3285,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="inlineStr">
+      <c r="B156" s="4" t="inlineStr">
         <is>
           <t>Coverage of course content by lecturer</t>
         </is>
@@ -3298,7 +3298,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="inlineStr">
+      <c r="B157" s="4" t="inlineStr">
         <is>
           <t>Communication of objectives of the course</t>
         </is>
@@ -3311,7 +3311,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="4" t="inlineStr">
         <is>
           <t>Relevant reading materials and references provided(textbooks, links, lecturer notes, videos etc)</t>
         </is>
@@ -3329,7 +3329,7 @@
           <t>Class Attendance</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="4" t="inlineStr">
         <is>
           <t>Regularity in class</t>
         </is>
@@ -3353,7 +3353,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="4" t="inlineStr">
         <is>
           <t>Punctuality</t>
         </is>
@@ -3366,7 +3366,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="4" t="inlineStr">
         <is>
           <t>Does the course have an online teaching period on this timetable ?</t>
         </is>
@@ -3379,7 +3379,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="4" t="inlineStr">
         <is>
           <t>How often does the lecturer use the online teaching period ?</t>
         </is>
@@ -3397,7 +3397,7 @@
           <t>Mode Delivery / Interactions</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="4" t="inlineStr">
         <is>
           <t>Lecturer explains the material clearly in ways that easy to understand, offer alternative explanations or additional examples and clears up confusion</t>
         </is>
@@ -3421,7 +3421,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="inlineStr">
+      <c r="B164" s="4" t="inlineStr">
         <is>
           <t>Encouraging student participation during learning</t>
         </is>
@@ -3434,7 +3434,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="inlineStr">
+      <c r="B165" s="4" t="inlineStr">
         <is>
           <t>Interaction with students in class</t>
         </is>
@@ -3447,7 +3447,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="inlineStr">
+      <c r="B166" s="4" t="inlineStr">
         <is>
           <t>The lecturer is available to students outside class time for tutoring, review work or answer questions</t>
         </is>
@@ -3460,7 +3460,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="inlineStr">
+      <c r="B167" s="4" t="inlineStr">
         <is>
           <t>The lecturer links learning materials to practical applications.</t>
         </is>
@@ -3478,7 +3478,7 @@
           <t>Assesssment of Materials Taught</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B168" s="4" t="inlineStr">
         <is>
           <t>The lecturer is approchable; He/She demonstrates interest in and concerns for the students</t>
         </is>
@@ -3502,7 +3502,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="4" t="inlineStr">
         <is>
           <t>The lecturer gives the right amounts of graded assignments, tests and quizzes, in order to fairly evaluate performance</t>
         </is>
@@ -3515,7 +3515,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="4" t="inlineStr">
         <is>
           <t>Marking and discussion of class assignment.</t>
         </is>
@@ -3528,7 +3528,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="4" t="inlineStr">
         <is>
           <t>Monitoring the the progress of the class (Attendance, Student performance)</t>
         </is>
@@ -3546,7 +3546,7 @@
           <t>Use of Teaching Assistants</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="4" t="inlineStr">
         <is>
           <t>Is this lecturer having a teaching assistant ?</t>
         </is>
@@ -3570,7 +3570,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="4" t="inlineStr">
         <is>
           <t>How often does the teaching assistance do tutorials in the absence of the lecturer?</t>
         </is>
@@ -3586,7 +3586,7 @@
     <row r="175"/>
     <row r="176"/>
     <row r="177"/>
-    <row r="178">
+    <row r="178" ht="28.8" customHeight="1">
       <c r="A178" s="2" t="inlineStr">
         <is>
           <t>Name of Lecturer</t>
@@ -3606,7 +3606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" ht="28.8" customHeight="1">
       <c r="A179" s="2" t="inlineStr">
         <is>
           <t>Course Code</t>
@@ -3636,7 +3636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" ht="28.8" customHeight="1">
       <c r="A180" s="2" t="inlineStr">
         <is>
           <t>Number of Students</t>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" ht="28.8" customHeight="1">
       <c r="A181" s="2" t="inlineStr">
         <is>
           <t>Department</t>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" ht="28.8" customHeight="1">
       <c r="A182" s="2" t="inlineStr">
         <is>
           <t>Mean Score</t>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
     </row>
-    <row r="183">
+    <row r="183" ht="43.2" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
           <t>Core Area (Categories)</t>
@@ -3768,7 +3768,7 @@
           <t>Course Content</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="4" t="inlineStr">
         <is>
           <t>Lecturer has provided helpful course outline</t>
         </is>
@@ -3803,7 +3803,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="4" t="inlineStr">
         <is>
           <t>Coverage of course content by lecturer</t>
         </is>
@@ -3816,7 +3816,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="4" t="inlineStr">
         <is>
           <t>Communication of objectives of the course</t>
         </is>
@@ -3829,7 +3829,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="4" t="inlineStr">
         <is>
           <t>Relevant reading materials and references provided(textbooks, links, lecturer notes, videos etc)</t>
         </is>
@@ -3847,7 +3847,7 @@
           <t>Class Attendance</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="4" t="inlineStr">
         <is>
           <t>Regularity in class</t>
         </is>
@@ -3871,7 +3871,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="4" t="inlineStr">
         <is>
           <t>Punctuality</t>
         </is>
@@ -3884,7 +3884,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="4" t="inlineStr">
         <is>
           <t>Does the course have an online teaching period on this timetable ?</t>
         </is>
@@ -3897,7 +3897,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="inlineStr">
+      <c r="B191" s="4" t="inlineStr">
         <is>
           <t>How often does the lecturer use the online teaching period ?</t>
         </is>
@@ -3915,7 +3915,7 @@
           <t>Mode Delivery / Interactions</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B192" s="4" t="inlineStr">
         <is>
           <t>Lecturer explains the material clearly in ways that easy to understand, offer alternative explanations or additional examples and clears up confusion</t>
         </is>
@@ -3939,7 +3939,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="4" t="inlineStr">
         <is>
           <t>Encouraging student participation during learning</t>
         </is>
@@ -3952,7 +3952,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="4" t="inlineStr">
         <is>
           <t>Interaction with students in class</t>
         </is>
@@ -3965,7 +3965,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="4" t="inlineStr">
         <is>
           <t>The lecturer is available to students outside class time for tutoring, review work or answer questions</t>
         </is>
@@ -3978,7 +3978,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="4" t="inlineStr">
         <is>
           <t>The lecturer links learning materials to practical applications.</t>
         </is>
@@ -3996,7 +3996,7 @@
           <t>Assesssment of Materials Taught</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="4" t="inlineStr">
         <is>
           <t>The lecturer is approchable; He/She demonstrates interest in and concerns for the students</t>
         </is>
@@ -4020,7 +4020,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="4" t="inlineStr">
         <is>
           <t>The lecturer gives the right amounts of graded assignments, tests and quizzes, in order to fairly evaluate performance</t>
         </is>
@@ -4033,7 +4033,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="4" t="inlineStr">
         <is>
           <t>Marking and discussion of class assignment.</t>
         </is>
@@ -4046,7 +4046,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="inlineStr">
+      <c r="B200" s="4" t="inlineStr">
         <is>
           <t>Monitoring the the progress of the class (Attendance, Student performance)</t>
         </is>
@@ -4064,7 +4064,7 @@
           <t>Use of Teaching Assistants</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B201" s="4" t="inlineStr">
         <is>
           <t>Is this lecturer having a teaching assistant ?</t>
         </is>
@@ -4088,7 +4088,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="inlineStr">
+      <c r="B202" s="4" t="inlineStr">
         <is>
           <t>How often does the teaching assistance do tutorials in the absence of the lecturer?</t>
         </is>
@@ -4104,7 +4104,7 @@
     <row r="204"/>
     <row r="205"/>
     <row r="206"/>
-    <row r="207">
+    <row r="207" ht="28.8" customHeight="1">
       <c r="A207" s="2" t="inlineStr">
         <is>
           <t>Name of Lecturer</t>
@@ -4124,7 +4124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" ht="28.8" customHeight="1">
       <c r="A208" s="2" t="inlineStr">
         <is>
           <t>Course Code</t>
@@ -4154,7 +4154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" ht="28.8" customHeight="1">
       <c r="A209" s="2" t="inlineStr">
         <is>
           <t>Number of Students</t>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" ht="28.8" customHeight="1">
       <c r="A210" s="2" t="inlineStr">
         <is>
           <t>Department</t>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" ht="28.8" customHeight="1">
       <c r="A211" s="2" t="inlineStr">
         <is>
           <t>Mean Score</t>
@@ -4228,7 +4228,7 @@
         </is>
       </c>
     </row>
-    <row r="212">
+    <row r="212" ht="43.2" customHeight="1">
       <c r="A212" s="3" t="inlineStr">
         <is>
           <t>Core Area (Categories)</t>
@@ -4286,7 +4286,7 @@
           <t>Course Content</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="4" t="inlineStr">
         <is>
           <t>Lecturer has provided helpful course outline</t>
         </is>
@@ -4321,7 +4321,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="4" t="inlineStr">
         <is>
           <t>Coverage of course content by lecturer</t>
         </is>
@@ -4334,7 +4334,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="4" t="inlineStr">
         <is>
           <t>Communication of objectives of the course</t>
         </is>
@@ -4347,7 +4347,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="4" t="inlineStr">
         <is>
           <t>Relevant reading materials and references provided(textbooks, links, lecturer notes, videos etc)</t>
         </is>
@@ -4365,7 +4365,7 @@
           <t>Class Attendance</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="4" t="inlineStr">
         <is>
           <t>Regularity in class</t>
         </is>
@@ -4389,7 +4389,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="4" t="inlineStr">
         <is>
           <t>Punctuality</t>
         </is>
@@ -4402,7 +4402,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="4" t="inlineStr">
         <is>
           <t>Does the course have an online teaching period on this timetable ?</t>
         </is>
@@ -4415,7 +4415,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="4" t="inlineStr">
         <is>
           <t>How often does the lecturer use the online teaching period ?</t>
         </is>
@@ -4433,7 +4433,7 @@
           <t>Mode Delivery / Interactions</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="4" t="inlineStr">
         <is>
           <t>Lecturer explains the material clearly in ways that easy to understand, offer alternative explanations or additional examples and clears up confusion</t>
         </is>
@@ -4457,7 +4457,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="4" t="inlineStr">
         <is>
           <t>Encouraging student participation during learning</t>
         </is>
@@ -4470,7 +4470,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="inlineStr">
+      <c r="B223" s="4" t="inlineStr">
         <is>
           <t>Interaction with students in class</t>
         </is>
@@ -4483,7 +4483,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="inlineStr">
+      <c r="B224" s="4" t="inlineStr">
         <is>
           <t>The lecturer is available to students outside class time for tutoring, review work or answer questions</t>
         </is>
@@ -4496,7 +4496,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="inlineStr">
+      <c r="B225" s="4" t="inlineStr">
         <is>
           <t>The lecturer links learning materials to practical applications.</t>
         </is>
@@ -4514,7 +4514,7 @@
           <t>Assesssment of Materials Taught</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="4" t="inlineStr">
         <is>
           <t>The lecturer is approchable; He/She demonstrates interest in and concerns for the students</t>
         </is>
@@ -4538,7 +4538,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="4" t="inlineStr">
         <is>
           <t>The lecturer gives the right amounts of graded assignments, tests and quizzes, in order to fairly evaluate performance</t>
         </is>
@@ -4551,7 +4551,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="4" t="inlineStr">
         <is>
           <t>Marking and discussion of class assignment.</t>
         </is>
@@ -4564,7 +4564,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="inlineStr">
+      <c r="B229" s="4" t="inlineStr">
         <is>
           <t>Monitoring the the progress of the class (Attendance, Student performance)</t>
         </is>
@@ -4582,7 +4582,7 @@
           <t>Use of Teaching Assistants</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="4" t="inlineStr">
         <is>
           <t>Is this lecturer having a teaching assistant ?</t>
         </is>
@@ -4606,7 +4606,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="4" t="inlineStr">
         <is>
           <t>How often does the teaching assistance do tutorials in the absence of the lecturer?</t>
         </is>
@@ -4940,7 +4940,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="43.2" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Lecturer</t>
@@ -5565,7 +5565,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="21.6" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Lecturer</t>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="28.8" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Lecturer</t>
@@ -6446,7 +6446,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="28.8" customHeight="1">
       <c r="E3" s="3" t="inlineStr">
         <is>
           <t>Negative</t>
